--- a/medicine/Maladie à coronavirus 2019/Hausse_du_prix_des_matières_premières_des_années_2020-2022/Hausse_du_prix_des_matières_premières_des_années_2020-2022.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Hausse_du_prix_des_matières_premières_des_années_2020-2022/Hausse_du_prix_des_matières_premières_des_années_2020-2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le boom des matières premières des années 2020 fait référence à la hausse des prix de nombreux produits de base au début des années 2020 à la suite de la pandémie de Covid-19. La récession du Covid-19 a initialement fait chuter les prix des matières premières, mais les confinements (en), les goulots d'étranglement de la chaîne d'approvisionnement et la politique monétaire accommodante (en) ont limité l'offre et créé une demande (en) excédentaire, provoquant une hausse du super cycle des matières premières[1].
-L'invasion russe de l'Ukraine en 2022 a aggravé les goulots d'étranglement, créant le différend gazier Russie-Union européenne de 2022 et la crise des fournisseurs de gaz naturel du Royaume-Uni de 2021-2022 (en), contribuant à la crise énergétique mondiale de 2021 à aujourd'hui. Comme la Russie et la Biélorussie sont d'importants exportateurs d'engrais[2] et que le gaz naturel est un composant principal de nombreux engrais, les prix des engrais ont augmenté en conséquence, déclenchant les crises alimentaires de 2022[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le boom des matières premières des années 2020 fait référence à la hausse des prix de nombreux produits de base au début des années 2020 à la suite de la pandémie de Covid-19. La récession du Covid-19 a initialement fait chuter les prix des matières premières, mais les confinements (en), les goulots d'étranglement de la chaîne d'approvisionnement et la politique monétaire accommodante (en) ont limité l'offre et créé une demande (en) excédentaire, provoquant une hausse du super cycle des matières premières.
+L'invasion russe de l'Ukraine en 2022 a aggravé les goulots d'étranglement, créant le différend gazier Russie-Union européenne de 2022 et la crise des fournisseurs de gaz naturel du Royaume-Uni de 2021-2022 (en), contribuant à la crise énergétique mondiale de 2021 à aujourd'hui. Comme la Russie et la Biélorussie sont d'importants exportateurs d'engrais et que le gaz naturel est un composant principal de nombreux engrais, les prix des engrais ont augmenté en conséquence, déclenchant les crises alimentaires de 2022.
 Le précédent super cycle des matières premières était le boom des matières premières des années 2000 (en), attribué aux marchés émergents, en particulier celui de la Chine, fournissant une forte demande de matières premières.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aliments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Bois de construction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prix du bois ont augmenté avec le marché du logement en ébullition. De nouveaux tarifs potentiels de 17,99 % sur le bois d'œuvre canadien ont également fait grimper le prix. Ces tarifs ont été finalisés à la baisse à 11,64% par l'administration Biden[4]. De nouveaux contrats qui permettent aux semi-remorques de transporter des bois en lieu et place  des wagons à partir du 8 août 2022, est potentiellement la raison pour laquelle les prix sont revenus à la normale au second semestre 2022[5]. La hausse des taux d'intérêt hypothécaires avec l'inflation est une autre raison du ralentissement de la demande de logements et de bois d'œuvre[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prix du bois ont augmenté avec le marché du logement en ébullition. De nouveaux tarifs potentiels de 17,99 % sur le bois d'œuvre canadien ont également fait grimper le prix. Ces tarifs ont été finalisés à la baisse à 11,64% par l'administration Biden. De nouveaux contrats qui permettent aux semi-remorques de transporter des bois en lieu et place  des wagons à partir du 8 août 2022, est potentiellement la raison pour laquelle les prix sont revenus à la normale au second semestre 2022. La hausse des taux d'intérêt hypothécaires avec l'inflation est une autre raison du ralentissement de la demande de logements et de bois d'œuvre.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,11 +619,12 @@
           <t>Pétrole brut et produits pétroliers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Carburéacteur
-No 2 mazout</t>
+</t>
         </is>
       </c>
     </row>
@@ -615,7 +634,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,10 +649,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Électricité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Pétrole brut et produits pétroliers</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carburéacteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -641,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -656,10 +686,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lithium</t>
+          <t>Électricité</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -667,7 +699,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -682,10 +714,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cuivre</t>
+          <t>Lithium</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -693,7 +727,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -708,10 +742,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nickel</t>
+          <t>Cuivre</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -719,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -734,10 +770,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Étain</t>
+          <t>Nickel</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -745,7 +783,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -760,10 +798,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Titane</t>
+          <t>Étain</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -771,7 +811,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -786,10 +826,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Acier laminé</t>
+          <t>Titane</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -797,7 +839,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -812,10 +854,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Palladium</t>
+          <t>Acier laminé</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -823,7 +867,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -838,10 +882,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rhodium</t>
+          <t>Palladium</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -849,7 +895,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -864,10 +910,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Or</t>
+          <t>Rhodium</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -875,7 +923,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -890,15 +938,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Minerai de fer</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -906,7 +951,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -921,10 +966,45 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Minerai de fer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hausse_du_prix_des_matières_premières_des_années_2020-2022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hausse_du_prix_des_mati%C3%A8res_premi%C3%A8res_des_ann%C3%A9es_2020-2022</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Coton</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
